--- a/DataSets/family.xlsx
+++ b/DataSets/family.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adaptabletools/Code/demo-dev/DataSets/jwtest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adaptabletools/Code/demo-dev/DataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E017E4A-1A1A-2645-B015-49699F3B53C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEED689-BA90-1B45-9974-10D8F4F27459}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{15E58E2E-7133-2141-8BEA-52E0A5EE9AA8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Israel Based</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AF032C-763A-A643-9588-0B4E47F11E17}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,7 +424,7 @@
     <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +437,11 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -448,8 +454,11 @@
       <c r="D2" s="1">
         <v>25651</v>
       </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -459,8 +468,11 @@
       <c r="D3" s="1">
         <v>26841</v>
       </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -472,6 +484,9 @@
       </c>
       <c r="D4" s="1">
         <v>36722</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
